--- a/U233_MET_FAST_001/U233_MET_FAST_001.xlsx
+++ b/U233_MET_FAST_001/U233_MET_FAST_001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_neutronics\U233-MET-FAST-001\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\ML_neutronics\U233_MET_FAST_001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79EE555-C365-46FF-B0CB-4D458C41BD31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E4F155-B0C6-4330-92DD-5F91D5BB0C7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{2D6430AF-E092-4624-9832-2C561898D9CF}"/>
+    <workbookView xWindow="12107" yWindow="2647" windowWidth="9600" windowHeight="4920" xr2:uid="{2D6430AF-E092-4624-9832-2C561898D9CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
-    <numFmt numFmtId="174" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -586,65 +586,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -655,47 +708,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,18 +740,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -727,36 +751,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,16 +785,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>496902</xdr:colOff>
+      <xdr:colOff>513927</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>164296</xdr:rowOff>
+      <xdr:rowOff>158327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500E1922-3F97-4E13-BA97-1CEC7EE6569F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B005EBD-E757-4D1E-8F34-7A1CBB13142F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -803,13 +803,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -817,7 +811,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11120967" y="0"/>
-          <a:ext cx="1263135" cy="1286129"/>
+          <a:ext cx="1280160" cy="1280160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -835,16 +829,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>489393</xdr:colOff>
+      <xdr:colOff>513927</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>180551</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{559BA52D-5789-4BBB-8AB4-126DFFC6DAC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26F4818-EA81-4192-935C-5E7C5C84876C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -853,13 +847,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -867,7 +855,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11120967" y="1308100"/>
-          <a:ext cx="1255626" cy="1285451"/>
+          <a:ext cx="1280160" cy="1280160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1178,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B3BD66B-F434-48D8-BA90-8598FB046F1F}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:G21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1194,86 +1182,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-      <c r="I1" s="36" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="I1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="37"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="I2" s="45" t="s">
+      <c r="G2" s="40"/>
+      <c r="I2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="46">
+      <c r="J2" s="25">
         <v>18.423999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="I3" s="47" t="s">
+      <c r="G3" s="45"/>
+      <c r="I3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="27" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="42"/>
+      <c r="F4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="I4" s="38" t="s">
+      <c r="G4" s="42"/>
+      <c r="I4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="22">
         <v>4.6711999999999997E-2</v>
       </c>
     </row>
@@ -1299,156 +1287,156 @@
       <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="40">
+      <c r="J5" s="22">
         <v>5.9026E-4</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="18">
-        <v>1.00031</v>
-      </c>
-      <c r="C6" s="19">
-        <v>1.8799999999999999E-3</v>
-      </c>
-      <c r="D6" s="18">
+      <c r="B6" s="13">
+        <v>0.99908600000000003</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1.4400000000000001E-3</v>
+      </c>
+      <c r="D6" s="13">
         <v>1.00414</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="14">
         <v>1.32E-3</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="35">
         <v>0.997</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="37">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="I6" s="38" t="s">
+      <c r="I6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="22">
         <v>1.4280999999999999E-5</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="13"/>
-      <c r="B7" s="20">
-        <v>0.99733700000000003</v>
-      </c>
-      <c r="C7" s="21">
-        <v>1.81E-3</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="A7" s="32"/>
+      <c r="B7" s="15">
+        <v>0.99653700000000001</v>
+      </c>
+      <c r="C7" s="16">
+        <v>1.4599999999999999E-3</v>
+      </c>
+      <c r="D7" s="15">
         <v>1.00143</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="16">
         <v>1.2600000000000001E-3</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="11"/>
-      <c r="I7" s="39" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="37"/>
+      <c r="I7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="23">
         <v>2.8561E-4</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="13"/>
-      <c r="B8" s="20">
-        <v>2.8420400000000001E-3</v>
-      </c>
-      <c r="C8" s="21">
-        <v>4.0239999999999998E-2</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="A8" s="32"/>
+      <c r="B8" s="15">
+        <v>2.7954899999999999E-3</v>
+      </c>
+      <c r="C8" s="16">
+        <v>2.7859999999999999E-2</v>
+      </c>
+      <c r="D8" s="15">
         <v>2.7496399999999998E-3</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="16">
         <v>2.8139999999999998E-2</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="37"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="20">
-        <v>0.99791399999999997</v>
-      </c>
-      <c r="C9" s="21">
-        <v>1.2099999999999999E-3</v>
-      </c>
-      <c r="D9" s="20">
+      <c r="B9" s="15">
+        <v>0.99849200000000005</v>
+      </c>
+      <c r="C9" s="16">
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="D9" s="15">
         <v>1.0044299999999999</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="16">
         <v>9.1E-4</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="37"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="20">
-        <v>0.996363</v>
-      </c>
-      <c r="C10" s="21">
-        <v>1.4499999999999999E-3</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="B10" s="15">
+        <v>0.99813700000000005</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1E-3</v>
+      </c>
+      <c r="D10" s="15">
         <v>1.00475</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="16">
         <v>1.06E-3</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="11"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="37"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="20">
-        <v>0.99791399999999997</v>
-      </c>
-      <c r="C11" s="21">
-        <v>1.2099999999999999E-3</v>
-      </c>
-      <c r="D11" s="20">
+      <c r="B11" s="15">
+        <v>0.99849200000000005</v>
+      </c>
+      <c r="C11" s="16">
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="D11" s="15">
         <v>1.0044299999999999</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="16">
         <v>9.1E-4</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="12"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="38"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="5">
-        <v>2.5835499999999998</v>
+        <v>2.5825</v>
       </c>
       <c r="C12" s="6">
-        <v>1.9000000000000001E-4</v>
+        <v>1.6000000000000001E-4</v>
       </c>
       <c r="D12" s="5">
         <v>2.5553699999999999</v>
@@ -1458,7 +1446,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="5">
@@ -1475,7 +1463,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A14" s="16"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="5">
         <v>1</v>
       </c>
@@ -1490,7 +1478,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="17"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="8">
         <v>1</v>
       </c>
@@ -1506,18 +1494,18 @@
     </row>
     <row r="16" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="17" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="63"/>
     </row>
     <row r="18" spans="1:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="52" t="s">
@@ -1534,109 +1522,109 @@
       <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="55" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55" t="s">
+      <c r="E19" s="55"/>
+      <c r="F19" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="56"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="1:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="58" t="s">
+      <c r="C20" s="65"/>
+      <c r="D20" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="59"/>
-      <c r="F20" s="58" t="s">
+      <c r="E20" s="65"/>
+      <c r="F20" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="G20" s="59"/>
+      <c r="G20" s="65"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="48">
         <v>5000</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="61">
+      <c r="C21" s="49"/>
+      <c r="D21" s="48">
         <v>10000</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="61">
+      <c r="E21" s="49"/>
+      <c r="F21" s="48">
         <v>2500</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="61">
+      <c r="B22" s="48">
         <v>100</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="61">
+      <c r="C22" s="49"/>
+      <c r="D22" s="48">
         <v>100</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="61">
+      <c r="E22" s="49"/>
+      <c r="F22" s="48">
         <v>115</v>
       </c>
-      <c r="G22" s="62"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="61">
+      <c r="B23" s="48">
         <v>20</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="61">
+      <c r="C23" s="49"/>
+      <c r="D23" s="48">
         <v>50</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="61">
+      <c r="E23" s="49"/>
+      <c r="F23" s="48">
         <v>15</v>
       </c>
-      <c r="G23" s="62"/>
+      <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="59">
         <f>B21*(B22-B23)</f>
         <v>400000</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="64">
+      <c r="C24" s="60"/>
+      <c r="D24" s="59">
         <f>D21*(D22-D23)</f>
         <v>500000</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="64">
+      <c r="E24" s="60"/>
+      <c r="F24" s="59">
         <f>F21*(F22-F23)</f>
         <v>250000</v>
       </c>
-      <c r="G24" s="65"/>
+      <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7" ht="14.7" thickTop="1" x14ac:dyDescent="0.5"/>
   </sheetData>
@@ -1664,6 +1652,7 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="F6:F11"/>
@@ -1675,7 +1664,6 @@
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
   </mergeCells>
